--- a/Task_3/src/script/data.xlsx
+++ b/Task_3/src/script/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{286A25BB-0F0B-4B2E-B7BF-4CAD19034DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{264E6CEB-FCF6-4C4B-A8BE-7EE05F6DF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>title</t>
   </si>
@@ -39,6 +39,9 @@
     <t>lastname</t>
   </si>
   <si>
+    <t>office</t>
+  </si>
+  <si>
     <t>dob</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>shirisha</t>
   </si>
   <si>
+    <t>innominds</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
     <t>saisree</t>
   </si>
   <si>
+    <t>microsoft</t>
+  </si>
+  <si>
     <t>sree@gmail.com</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
     <t>nand</t>
   </si>
   <si>
+    <t>sreeclinic</t>
+  </si>
+  <si>
     <t>soumysree@gmail.com</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
   </si>
   <si>
     <t>anand</t>
+  </si>
+  <si>
+    <t>accenture</t>
   </si>
   <si>
     <t>male</t>
@@ -121,8 +136,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -187,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,6 +217,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -224,12 +241,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DBA59E8-2A9A-470A-BC3D-1E386567F61B}" name="Table1" displayName="Table1" ref="A1:I17" totalsRowShown="0">
-  <autoFilter ref="A1:I17" xr:uid="{7DBA59E8-2A9A-470A-BC3D-1E386567F61B}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DBA59E8-2A9A-470A-BC3D-1E386567F61B}" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0">
+  <autoFilter ref="A1:J17" xr:uid="{7DBA59E8-2A9A-470A-BC3D-1E386567F61B}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{7FF69DB1-AC54-4FC6-A9A0-FEF2072E3212}" name="title"/>
     <tableColumn id="2" xr3:uid="{D410AFB6-A1DE-4749-A523-3F2F5D4CD571}" name="firstname"/>
     <tableColumn id="3" xr3:uid="{39545D7F-56D4-46C2-B831-2B29FD5A88AC}" name="lastname"/>
+    <tableColumn id="11" xr3:uid="{B251794F-4152-45E9-83FE-1E3885F9544C}" name="office"/>
     <tableColumn id="4" xr3:uid="{9B6E8CA2-370D-46DB-B60C-3DA3EE41628A}" name="dob" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{12EAD479-25B2-492D-A456-C4BBEBB5A13D}" name="age"/>
     <tableColumn id="6" xr3:uid="{24E781B5-3C71-4005-82A5-6BE69CF35E81}" name="gender"/>
@@ -538,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,10 +574,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -574,177 +592,192 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <v>36064</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>9550717673</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6">
-        <v>36064</v>
-      </c>
-      <c r="E2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6">
+        <v>35953</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>9865457667</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>9550717673</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E4" s="6">
+        <v>35938</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
-        <v>35953</v>
-      </c>
-      <c r="E3">
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>8786764322</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>9865457667</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
-        <v>35938</v>
-      </c>
-      <c r="E4">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>8786764322</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
         <v>37460</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
         <v>9897864348</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="D6" s="6"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7" s="6"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" s="6"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9" s="6"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="D10" s="6"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="D11" s="6"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="D12" s="6"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13" s="6"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14" s="6"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="D15" s="6"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="D16" s="6"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="4:9">
-      <c r="D17" s="6"/>
-      <c r="I17" s="4"/>
+      <c r="J5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="E6" s="6"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="E7" s="6"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="E8" s="6"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="E9" s="6"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="E10" s="6"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="E11" s="6"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="E12" s="6"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="E13" s="6"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="E14" s="6"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="E15" s="6"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16" s="6"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="6"/>
+      <c r="J17" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{7CBB0480-67CE-4174-BDCA-93BF0DA743B7}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{7D632EC1-5E1D-4031-8C05-8D7FE0E5AF30}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{729217D0-A6DE-420F-9C18-360E37C61CAF}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{4B9388FA-36BE-4F70-9469-32E47BBE359E}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{7CBB0480-67CE-4174-BDCA-93BF0DA743B7}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{7D632EC1-5E1D-4031-8C05-8D7FE0E5AF30}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{729217D0-A6DE-420F-9C18-360E37C61CAF}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{4B9388FA-36BE-4F70-9469-32E47BBE359E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Task_3/src/script/data.xlsx
+++ b/Task_3/src/script/data.xlsx
@@ -88,7 +88,7 @@
     <t>nand</t>
   </si>
   <si>
-    <t>sree clinic</t>
+    <t>sreeclinic</t>
   </si>
   <si>
     <t>soumysree@gmail.com</t>
@@ -135,18 +135,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -207,35 +207,44 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,19 +573,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +613,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -624,19 +633,19 @@
       <c r="E2" s="2">
         <v>36064</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>9550717673</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -656,19 +665,19 @@
       <c r="E3" s="2">
         <v>35953</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>9865457667</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -688,19 +697,19 @@
       <c r="E4" s="2">
         <v>35938</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>8786764322</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -720,81 +729,81 @@
       <c r="E5" s="2">
         <v>37460</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>9897864348</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="I8" s="8"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
@@ -802,11 +811,11 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
@@ -814,11 +823,11 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
@@ -826,11 +835,11 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
@@ -838,11 +847,11 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
@@ -850,11 +859,11 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
@@ -862,11 +871,11 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
@@ -874,11 +883,11 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
